--- a/Water/问题记录.xlsx
+++ b/Water/问题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25240" windowHeight="12920"/>
+    <workbookView windowWidth="25240" windowHeight="12920" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="产品" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="同类产品分析" sheetId="3" r:id="rId3"/>
     <sheet name="发展与展望" sheetId="2" r:id="rId4"/>
     <sheet name="一期 Scheme" sheetId="5" r:id="rId5"/>
+    <sheet name="主流产品分析" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>应用</t>
   </si>
@@ -211,16 +212,26 @@
     <t>工作</t>
   </si>
   <si>
+    <t>待解决</t>
+  </si>
+  <si>
     <t>平台搭建</t>
   </si>
   <si>
     <t>移动端搭建</t>
   </si>
   <si>
+    <t xml:space="preserve">网络请求、数据处理、UI交互、数据统计
+</t>
+  </si>
+  <si>
     <t>服务器搭建</t>
   </si>
   <si>
     <t>运营推广</t>
+  </si>
+  <si>
+    <t>见解</t>
   </si>
 </sst>
 </file>
@@ -849,12 +860,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -1183,7 +1197,7 @@
   <sheetPr/>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -1226,7 +1240,7 @@
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1240,7 +1254,7 @@
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -1423,10 +1437,10 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1505,38 +1519,44 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="11" width="37.7916666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" ht="226.75" customHeight="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" ht="226.75" customHeight="1" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" ht="226.75" customHeight="1" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1547,4 +1567,32 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.6" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="11" width="37.7916666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>